--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03675549274335915</v>
+        <v>0.03208162110170181</v>
       </c>
       <c r="H2" t="n">
-        <v>10.39350595074871</v>
+        <v>-3.644261968430065</v>
       </c>
       <c r="I2" t="n">
-        <v>-54.77503053481092</v>
+        <v>-8.625475708809777</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07085165158483006</v>
+        <v>0.06687162342617554</v>
       </c>
       <c r="H3" t="n">
-        <v>40.39844592702961</v>
+        <v>32.51168879827196</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03035002186317722</v>
+        <v>0.0139640214175768</v>
       </c>
       <c r="H4" t="n">
-        <v>-37.64867109056691</v>
+        <v>-71.31220213840888</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05455485841272146</v>
+        <v>0.07123469294217934</v>
       </c>
       <c r="H5" t="n">
-        <v>-22.78648429996755</v>
+        <v>0.8211045158787089</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1048109176324852</v>
+        <v>-0.1540462429413415</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.89452695840867</v>
+        <v>-30.96310630252292</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1319170789947643</v>
+        <v>-0.07592735945351084</v>
       </c>
       <c r="H7" t="n">
-        <v>5.505412792494771</v>
+        <v>39.27437248891227</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1800608686217423</v>
+        <v>-0.2188718529334285</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.598341930110685</v>
+        <v>-9.88716516511186</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3661641660498532</v>
+        <v>-0.3033111385678904</v>
       </c>
       <c r="H9" t="n">
-        <v>21.21555192791217</v>
+        <v>-0.4085884864675501</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02419820766949371</v>
+        <v>-0.01685330631372322</v>
       </c>
       <c r="H10" t="n">
-        <v>-2001.306024903284</v>
+        <v>-1424.201084290179</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009903786348385563</v>
+        <v>-0.01782258904769769</v>
       </c>
       <c r="H11" t="n">
-        <v>-148.1622387910742</v>
+        <v>13.32852311274608</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.214179197163701</v>
+        <v>0.1997671648356183</v>
       </c>
       <c r="H12" t="n">
-        <v>1.070221233032063</v>
+        <v>-5.73075344194351</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.238676055861065</v>
+        <v>0.2466165245753381</v>
       </c>
       <c r="H13" t="n">
-        <v>1.565753135915601</v>
+        <v>4.944725032814968</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05187426505134286</v>
+        <v>-0.07377592133293376</v>
       </c>
       <c r="H14" t="n">
-        <v>-43.02678571773534</v>
+        <v>18.97231949575492</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07286455742536553</v>
+        <v>-0.05251792841898704</v>
       </c>
       <c r="H15" t="n">
-        <v>2.671352895865827</v>
+        <v>25.99849703899318</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1647650441919473</v>
+        <v>0.1596809718707339</v>
       </c>
       <c r="H16" t="n">
-        <v>-13.93981595453517</v>
+        <v>-16.5953318851737</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2019365582916892</v>
+        <v>0.1719701244552567</v>
       </c>
       <c r="H17" t="n">
-        <v>16.14251785965514</v>
+        <v>-1.092484591019351</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03927001774928537</v>
+        <v>0.0555653284199867</v>
       </c>
       <c r="H18" t="n">
-        <v>-27.58598222370707</v>
+        <v>2.462614242737266</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07010917651836181</v>
+        <v>0.06316901527490057</v>
       </c>
       <c r="H19" t="n">
-        <v>-18.51522384637454</v>
+        <v>-26.58146443679704</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01122103053295644</v>
+        <v>0.001705204562111364</v>
       </c>
       <c r="H20" t="n">
-        <v>-188.153915429173</v>
+        <v>-86.60368507898536</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01640663985101027</v>
+        <v>-0.02984487959186669</v>
       </c>
       <c r="H21" t="n">
-        <v>-69.54615584672246</v>
+        <v>44.6022268960774</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05524924805868024</v>
+        <v>0.07881842909534316</v>
       </c>
       <c r="H22" t="n">
-        <v>-15.35632178112869</v>
+        <v>20.75244432245246</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07510548127100788</v>
+        <v>0.07171703472764612</v>
       </c>
       <c r="H23" t="n">
-        <v>30.22553823997377</v>
+        <v>24.35030426984009</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03849930279400976</v>
+        <v>0.05927091326668833</v>
       </c>
       <c r="H24" t="n">
-        <v>18.84661274735245</v>
+        <v>82.96817773240419</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0331051179453974</v>
+        <v>0.03725331983404287</v>
       </c>
       <c r="H25" t="n">
-        <v>12.47951645028832</v>
+        <v>26.57364362852677</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1135548476747821</v>
+        <v>0.115548077803632</v>
       </c>
       <c r="H26" t="n">
-        <v>0.232527210013632</v>
+        <v>1.99191042628942</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1144263440666751</v>
+        <v>0.1163247761972346</v>
       </c>
       <c r="H27" t="n">
-        <v>26.87583565491697</v>
+        <v>28.98081563101872</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09418036491585743</v>
+        <v>0.0907411455445794</v>
       </c>
       <c r="H28" t="n">
-        <v>-19.82406018250138</v>
+        <v>-22.75187476016962</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1427677172223787</v>
+        <v>0.1248529527507469</v>
       </c>
       <c r="H29" t="n">
-        <v>19.34339586731443</v>
+        <v>4.367959754699173</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06737878371594558</v>
+        <v>0.07283114963935999</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2237897939037254</v>
+        <v>8.334010045006417</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05112331781694987</v>
+        <v>0.06063925763455246</v>
       </c>
       <c r="H31" t="n">
-        <v>-25.49539538637192</v>
+        <v>-11.62733353295091</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04782438711206987</v>
+        <v>0.03795619933500401</v>
       </c>
       <c r="H32" t="n">
-        <v>9.521774870908287</v>
+        <v>-13.07718572990389</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0800988719644439</v>
+        <v>0.07224072383406741</v>
       </c>
       <c r="H33" t="n">
-        <v>47.40746313619385</v>
+        <v>32.94596508461807</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003934127822295623</v>
+        <v>-0.02694017671003928</v>
       </c>
       <c r="H34" t="n">
-        <v>-120.599017891846</v>
+        <v>-41.05824902653418</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0149250054874009</v>
+        <v>0.02393126726749577</v>
       </c>
       <c r="H35" t="n">
-        <v>6.968824050185995</v>
+        <v>71.51749255942964</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01004722059642655</v>
+        <v>-0.002577753549880305</v>
       </c>
       <c r="H36" t="n">
-        <v>-164.9930412707817</v>
+        <v>-116.6748645802464</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01136771671526596</v>
+        <v>-0.006956544824441795</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.230158700750216</v>
+        <v>-155.5471679600986</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06838888497903489</v>
+        <v>0.07551317751573167</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.674914750750977</v>
+        <v>5.255409359802937</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01774598456903637</v>
+        <v>0.03308809686384414</v>
       </c>
       <c r="H39" t="n">
-        <v>-58.79017214905852</v>
+        <v>-23.16263037591851</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05287613902350635</v>
+        <v>0.05757831748328093</v>
       </c>
       <c r="H40" t="n">
-        <v>18.21241905699081</v>
+        <v>28.72483355685662</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04004239758564026</v>
+        <v>0.06844463873485879</v>
       </c>
       <c r="H41" t="n">
-        <v>223.9853837307187</v>
+        <v>453.7895800918752</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06979011025976638</v>
+        <v>0.07930459735437771</v>
       </c>
       <c r="H42" t="n">
-        <v>33.49555109170718</v>
+        <v>51.69500217900982</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06308566340446384</v>
+        <v>0.06216074181148436</v>
       </c>
       <c r="H43" t="n">
-        <v>26.42446578775469</v>
+        <v>24.57091124021361</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1098642465572073</v>
+        <v>0.133801338737148</v>
       </c>
       <c r="H44" t="n">
-        <v>-16.61212567689478</v>
+        <v>1.556325815849139</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1612266240784399</v>
+        <v>0.1649778194509112</v>
       </c>
       <c r="H45" t="n">
-        <v>-10.14345333053758</v>
+        <v>-8.052797001414502</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0484101377229103</v>
+        <v>-0.02581450652603963</v>
       </c>
       <c r="H46" t="n">
-        <v>10.19875212163559</v>
+        <v>41.23696937017581</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01237027145871557</v>
+        <v>0.007244012978369976</v>
       </c>
       <c r="H47" t="n">
-        <v>-572.2258468298838</v>
+        <v>376.5347692307329</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.004998023897103469</v>
+        <v>0.01534174556852695</v>
       </c>
       <c r="H48" t="n">
-        <v>-65.51141515026846</v>
+        <v>5.864858727421331</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.005637081173508109</v>
+        <v>-0.005370105665969714</v>
       </c>
       <c r="H49" t="n">
-        <v>1.407902361200963</v>
+        <v>3.394836036202156</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1264016884993795</v>
+        <v>0.1360471527627251</v>
       </c>
       <c r="H50" t="n">
-        <v>-11.56483037381554</v>
+        <v>-4.816516499381359</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1527640399747627</v>
+        <v>0.1272392876536723</v>
       </c>
       <c r="H51" t="n">
-        <v>16.64474452407183</v>
+        <v>-2.84497448326569</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08336096721478339</v>
+        <v>0.08948338228483049</v>
       </c>
       <c r="H52" t="n">
-        <v>34.55581662972717</v>
+        <v>44.43821827429733</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05792422465999843</v>
+        <v>0.09398543198388534</v>
       </c>
       <c r="H53" t="n">
-        <v>-5.324153384774812</v>
+        <v>53.61708153716441</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.119256905532091</v>
+        <v>-0.1473785421461656</v>
       </c>
       <c r="H54" t="n">
-        <v>33.53598917527667</v>
+        <v>-65.02473647869907</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.06072432133764382</v>
+        <v>-0.0385111187600477</v>
       </c>
       <c r="H55" t="n">
-        <v>-41.49117975044222</v>
+        <v>62.89394306092986</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1387807207120987</v>
+        <v>0.1535480776234136</v>
       </c>
       <c r="H56" t="n">
-        <v>-10.53540620593125</v>
+        <v>-1.015671903473168</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1486710974984578</v>
+        <v>0.167907724562929</v>
       </c>
       <c r="H57" t="n">
-        <v>6.584885635197217</v>
+        <v>20.37595686674489</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 30/DJI_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03208162110170181</v>
+        <v>0.05284525631479019</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.644261968430065</v>
+        <v>58.71840321089577</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.625475708809777</v>
+        <v>14.02397192591924</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06687162342617554</v>
+        <v>0.06635313651761979</v>
       </c>
       <c r="H3" t="n">
-        <v>32.51168879827196</v>
+        <v>31.48426382557981</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0139640214175768</v>
+        <v>0.00874539400688538</v>
       </c>
       <c r="H4" t="n">
-        <v>-71.31220213840888</v>
+        <v>-82.03339224518071</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07123469294217934</v>
+        <v>0.05840167492892269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8211045158787089</v>
+        <v>-17.34194212515759</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1540462429413415</v>
+        <v>-0.1269181465527413</v>
       </c>
       <c r="H6" t="n">
-        <v>-30.96310630252292</v>
+        <v>-7.900033141574879</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.07592735945351084</v>
+        <v>-0.09526340321766807</v>
       </c>
       <c r="H7" t="n">
-        <v>39.27437248891227</v>
+        <v>23.80967834425097</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2188718529334285</v>
+        <v>-0.2051602722704262</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.88716516511186</v>
+        <v>-3.0031062566858</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3033111385678904</v>
+        <v>-0.2492974569804259</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4085884864675501</v>
+        <v>17.47218421697498</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01685330631372322</v>
+        <v>0.004801985107344942</v>
       </c>
       <c r="H10" t="n">
-        <v>-1424.201084290179</v>
+        <v>277.3024573055829</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01782258904769769</v>
+        <v>0.06987018697339868</v>
       </c>
       <c r="H11" t="n">
-        <v>13.32852311274608</v>
+        <v>439.7796066085759</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1997671648356183</v>
+        <v>0.2122349857374143</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.73075344194351</v>
+        <v>0.1527564111409068</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2466165245753381</v>
+        <v>0.2495890173009801</v>
       </c>
       <c r="H13" t="n">
-        <v>4.944725032814968</v>
+        <v>6.209633912265371</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07377592133293376</v>
+        <v>-0.07548491132566248</v>
       </c>
       <c r="H14" t="n">
-        <v>18.97231949575492</v>
+        <v>17.09534537447127</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05251792841898704</v>
+        <v>-0.05531349243235873</v>
       </c>
       <c r="H15" t="n">
-        <v>25.99849703899318</v>
+        <v>22.05934816467435</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1596809718707339</v>
+        <v>0.1721277071627426</v>
       </c>
       <c r="H16" t="n">
-        <v>-16.5953318851737</v>
+        <v>-10.09414508764179</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1719701244552567</v>
+        <v>0.217817598884789</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.092484591019351</v>
+        <v>25.27639661998217</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0555653284199867</v>
+        <v>0.05788591202889228</v>
       </c>
       <c r="H18" t="n">
-        <v>2.462614242737266</v>
+        <v>6.741776625079726</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06316901527490057</v>
+        <v>0.05900508851305674</v>
       </c>
       <c r="H19" t="n">
-        <v>-26.58146443679704</v>
+        <v>-31.42101122594057</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001705204562111364</v>
+        <v>-0.0175531673119257</v>
       </c>
       <c r="H20" t="n">
-        <v>-86.60368507898536</v>
+        <v>-237.9000281823428</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02984487959186669</v>
+        <v>-0.0241411910577574</v>
       </c>
       <c r="H21" t="n">
-        <v>44.6022268960774</v>
+        <v>55.18935767324896</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07881842909534316</v>
+        <v>0.03839384992683196</v>
       </c>
       <c r="H22" t="n">
-        <v>20.75244432245246</v>
+        <v>-41.17935007298578</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07171703472764612</v>
+        <v>0.06917175364252126</v>
       </c>
       <c r="H23" t="n">
-        <v>24.35030426984009</v>
+        <v>19.93703650731316</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05927091326668833</v>
+        <v>0.02783624341552676</v>
       </c>
       <c r="H24" t="n">
-        <v>82.96817773240419</v>
+        <v>-14.07004798900178</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03725331983404287</v>
+        <v>0.02264039875484063</v>
       </c>
       <c r="H25" t="n">
-        <v>26.57364362852677</v>
+        <v>-23.07590903658948</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.115548077803632</v>
+        <v>0.1238873957399087</v>
       </c>
       <c r="H26" t="n">
-        <v>1.99191042628942</v>
+        <v>9.352854754749274</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1163247761972346</v>
+        <v>0.0940073442651724</v>
       </c>
       <c r="H27" t="n">
-        <v>28.98081563101872</v>
+        <v>4.235265564311998</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0907411455445794</v>
+        <v>0.0967929427008974</v>
       </c>
       <c r="H28" t="n">
-        <v>-22.75187476016962</v>
+        <v>-17.59996730020007</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1248529527507469</v>
+        <v>0.140514323725405</v>
       </c>
       <c r="H29" t="n">
-        <v>4.367959754699173</v>
+        <v>17.45972330193137</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07283114963935999</v>
+        <v>0.06041597327540683</v>
       </c>
       <c r="H30" t="n">
-        <v>8.334010045006417</v>
+        <v>-10.1331684573656</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06063925763455246</v>
+        <v>0.06462625349874659</v>
       </c>
       <c r="H31" t="n">
-        <v>-11.62733353295091</v>
+        <v>-5.816882194061716</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03795619933500401</v>
+        <v>0.04827771598966876</v>
       </c>
       <c r="H32" t="n">
-        <v>-13.07718572990389</v>
+        <v>10.55993523788844</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07224072383406741</v>
+        <v>0.1074735038958095</v>
       </c>
       <c r="H33" t="n">
-        <v>32.94596508461807</v>
+        <v>97.78551401662193</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02694017671003928</v>
+        <v>-0.007044728849131892</v>
       </c>
       <c r="H34" t="n">
-        <v>-41.05824902653418</v>
+        <v>63.11393473692597</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02393126726749577</v>
+        <v>0.05221473187266831</v>
       </c>
       <c r="H35" t="n">
-        <v>71.51749255942964</v>
+        <v>274.2275653586879</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.002577753549880305</v>
+        <v>-0.007416419952538732</v>
       </c>
       <c r="H36" t="n">
-        <v>-116.6748645802464</v>
+        <v>-147.9750278627539</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.006956544824441795</v>
+        <v>0.03319453452664335</v>
       </c>
       <c r="H37" t="n">
-        <v>-155.5471679600986</v>
+        <v>165.0543382154814</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07551317751573167</v>
+        <v>0.06076841127601129</v>
       </c>
       <c r="H38" t="n">
-        <v>5.255409359802937</v>
+        <v>-15.29684996146651</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03308809686384414</v>
+        <v>0.02154845398266372</v>
       </c>
       <c r="H39" t="n">
-        <v>-23.16263037591851</v>
+        <v>-49.96005571711559</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05757831748328093</v>
+        <v>0.05334505902001968</v>
       </c>
       <c r="H40" t="n">
-        <v>28.72483355685662</v>
+        <v>19.26075897279657</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06844463873485879</v>
+        <v>0.02488554277904729</v>
       </c>
       <c r="H41" t="n">
-        <v>453.7895800918752</v>
+        <v>101.3503839117813</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07930459735437771</v>
+        <v>0.089238308656619</v>
       </c>
       <c r="H42" t="n">
-        <v>51.69500217900982</v>
+        <v>70.69635150691185</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06216074181148436</v>
+        <v>0.07048724515789156</v>
       </c>
       <c r="H43" t="n">
-        <v>24.57091124021361</v>
+        <v>41.25732905118962</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.133801338737148</v>
+        <v>0.122626020667023</v>
       </c>
       <c r="H44" t="n">
-        <v>1.556325815849139</v>
+        <v>-6.925833284628278</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1649778194509112</v>
+        <v>0.1524901168519333</v>
       </c>
       <c r="H45" t="n">
-        <v>-8.052797001414502</v>
+        <v>-15.01257698684358</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.02581450652603963</v>
+        <v>-0.02727374462774964</v>
       </c>
       <c r="H46" t="n">
-        <v>41.23696937017581</v>
+        <v>37.9152226158656</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.007244012978369976</v>
+        <v>-0.01016103504948941</v>
       </c>
       <c r="H47" t="n">
-        <v>376.5347692307329</v>
+        <v>-287.8899017638441</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01534174556852695</v>
+        <v>0.005392831972776166</v>
       </c>
       <c r="H48" t="n">
-        <v>5.864858727421331</v>
+        <v>-62.78706406721577</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.005370105665969714</v>
+        <v>-0.007504836087789579</v>
       </c>
       <c r="H49" t="n">
-        <v>3.394836036202156</v>
+        <v>-35.00775699381337</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1360471527627251</v>
+        <v>0.131100575260493</v>
       </c>
       <c r="H50" t="n">
-        <v>-4.816516499381359</v>
+        <v>-8.277320114208946</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1272392876536723</v>
+        <v>0.1469873229440798</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.84497448326569</v>
+        <v>12.23386561341208</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08948338228483049</v>
+        <v>0.0831981119560018</v>
       </c>
       <c r="H52" t="n">
-        <v>44.43821827429733</v>
+        <v>34.29294633119353</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09398543198388534</v>
+        <v>0.05132801040415862</v>
       </c>
       <c r="H53" t="n">
-        <v>53.61708153716441</v>
+        <v>-16.10551770674429</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1473785421461656</v>
+        <v>-0.1330672448302521</v>
       </c>
       <c r="H54" t="n">
-        <v>-65.02473647869907</v>
+        <v>-48.99989301210634</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0385111187600477</v>
+        <v>-0.08597899886806581</v>
       </c>
       <c r="H55" t="n">
-        <v>62.89394306092986</v>
+        <v>17.1579084097544</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1535480776234136</v>
+        <v>0.1290879263571622</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.015671903473168</v>
+        <v>-16.78383830258225</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.167907724562929</v>
+        <v>0.1684307244400088</v>
       </c>
       <c r="H57" t="n">
-        <v>20.37595686674489</v>
+        <v>20.75090453998954</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>